--- a/assessmentresult.xlsx
+++ b/assessmentresult.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3.67</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -443,13 +443,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3.67</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -470,13 +470,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3.67</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3.67</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3.67</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/assessmentresult.xlsx
+++ b/assessmentresult.xlsx
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.67</v>
+        <v>3.33</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.67</v>
+        <v>3.33</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.67</v>
+        <v>3.33</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.67</v>
+        <v>3.33</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3.67</v>
+        <v>3.33</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>

--- a/assessmentresult.xlsx
+++ b/assessmentresult.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -403,26 +403,26 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>101009713</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jenna</t>
+          <t>Haseeb</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>McConnell</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.33</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -430,26 +430,26 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>101006153</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Saundra</t>
+          <t>Jobin</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Warmington</t>
+          <t>Mathew</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.33</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -457,26 +457,26 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>100997482</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Abraham</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Poll</t>
+          <t>Srna</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.33</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -484,26 +484,26 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>101007628</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Darlene</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hebert</t>
+          <t>Abraham</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.33</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -511,26 +511,5588 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>101024632</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Dysart</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Ishdeep</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="B7" t="n">
+        <v>101012629</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Dharina</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Hanumunthadu</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>100997764</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fahid</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mannan</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>101003006</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Jackson</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Schoenermarck</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>101003507</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Kyrollos</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>100994250</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Bradley</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Reid</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>101004770</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Callum</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Kirby</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>100997792</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Logan</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MacGillivray</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>101013786</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Christopher</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Molnar</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>100998411</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Benjamin</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Bichel</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>101006779</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Dawoud</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>100966499</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Darren</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Holden</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>100997226</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Gabrielle</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>101004427</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Macdougall</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>100997443</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Thao-Tran</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Le-Phuong</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>101008909</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Honor </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Lopes</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>100996542</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mary</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MacKinnon</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>101011081</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Igor</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Veselinovic</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>100995206</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Zeqi</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Hu</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>101019972</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Yan'Ang</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Jia</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>101025954</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Chutian</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tao</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>101031438</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yijie </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Xia</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>101047510</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Baixi</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Zou</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>101000491</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Tuan</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Chau</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>100935765</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ali</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Faizan</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>101026761</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Zhi</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Qiao</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>101031077</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Cole</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>100935515</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Hussain</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Aljabri</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>101015807</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Robyn</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Van Gool</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>100908473</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Vadim</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Yastrebov</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>100995046</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Layan</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El-Astal </t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>100968704</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Zhe</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Ji</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>100982445</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Haoyang</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Liu</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>101011524</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Keyan</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Cassis</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>101012663</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Philip</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Naida</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>101008219</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Pruss</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>100969837</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Skalecki</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>100999548</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Danilo</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Vucetic</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>101051047</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Tanisha</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Garg</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>101018695</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ahmed</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sakr</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>101010041</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Devon</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Verge</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>100962136</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Harshan</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Anton</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>101007533</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Arava</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>3</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>101018187</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Viktor</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Dimitrov</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>101001771</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Teodora</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Blidaru</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>101006952</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Contreras</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>101009798</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Caleb</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Gryfe</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>101004428</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Tashfiq</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Akhand</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>100921446</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Hasan</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Issa</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>100999110</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Aleksandar</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Savic</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>100999332</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Calvin</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Soong</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>100996797</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Zihao</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Zheng</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>101019254</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Lixuan</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Luo</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>101014341</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pengliang </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Zhang</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>3</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>101018373</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Haohan</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Zhang</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>101057752</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Tongdan</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Zhu</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>3</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>100971104</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Bohua</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Cao</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>3</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>100967203</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Gen</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Li</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>101016463</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Hongbo</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Pang</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>3</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>100980200</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Weihong</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Shen</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>101009607</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Bedard</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>3</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>100999309</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Newton</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>3</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>101002958</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Rushton</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>4</v>
+      </c>
+      <c r="G68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>101031998</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Joshua</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Hayles</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>101029022</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Bay</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Ross</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>101012848</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Mary</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Stewart</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>101032335</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Joshua</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Fryer</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>100941844</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Fundarek</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>101010131</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Kaj</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Hemmingsen-Beriault</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>101038042</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Kyle</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Horne</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" t="n">
+        <v>4</v>
+      </c>
+      <c r="G75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>100889285</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Rachael</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>3</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>101038472</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Mahima</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Hasmani</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>3</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4</v>
+      </c>
+      <c r="G77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>101058440</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Vanessa</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Parayaoan</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>3</v>
+      </c>
+      <c r="F78" t="n">
+        <v>4</v>
+      </c>
+      <c r="G78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>100999317</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Gazoan</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Ahmed</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>3</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4</v>
+      </c>
+      <c r="G79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>101032342</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Riham</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Darwish</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>3</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>100997762</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Tarik</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Massarani</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>4</v>
+      </c>
+      <c r="G81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>101006768</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Mengyao</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Wu</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>101027055</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Xinrui</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Zhang</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>101049347</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Boucher</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>3</v>
+      </c>
+      <c r="F84" t="n">
+        <v>4</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>100993125</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Nnamdi</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Okwechime</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>3</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>100945382</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Manel</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Oudjida</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4</v>
+      </c>
+      <c r="G86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>101045797</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Kyle</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>3</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4</v>
+      </c>
+      <c r="G87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>101004413</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Dewilde</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>3</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>101002836</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Rachel</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Myrah</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>3</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4</v>
+      </c>
+      <c r="G89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>101007498</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Vikram</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Bombhi</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>3</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>101001982</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Jacky</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Chiu</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4</v>
+      </c>
+      <c r="G91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>101003372</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Kirin</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Rastogi</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>3</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4</v>
+      </c>
+      <c r="G92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>101008207</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Zhang</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4</v>
+      </c>
+      <c r="G93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>101015128</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Madelyn</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Krasnay</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>3</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>101008256</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Calvin</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Lam</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>3</v>
+      </c>
+      <c r="F95" t="n">
+        <v>4</v>
+      </c>
+      <c r="G95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>101001790</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Alyssa</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Mathias</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>3</v>
+      </c>
+      <c r="F96" t="n">
+        <v>4</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>100961942</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Huishu</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Shi</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>3</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4</v>
+      </c>
+      <c r="G97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>100970732</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Zichen</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Wang</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>3</v>
+      </c>
+      <c r="F98" t="n">
+        <v>4</v>
+      </c>
+      <c r="G98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>100997458</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Emad</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Arid</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>3</v>
+      </c>
+      <c r="F99" t="n">
+        <v>4</v>
+      </c>
+      <c r="G99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>101062340</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Oludare</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Balogun</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4</v>
+      </c>
+      <c r="G100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>100989250</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Anannya</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Bhatia</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>3</v>
+      </c>
+      <c r="F101" t="n">
+        <v>4</v>
+      </c>
+      <c r="G101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>101003545</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Gregory</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Koloniaris</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>4</v>
+      </c>
+      <c r="G102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>101033653</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Zoya</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Mushtaq</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>3</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4</v>
+      </c>
+      <c r="G103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>101000120</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Shounak</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Amladi</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>3</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4</v>
+      </c>
+      <c r="G104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>101000007</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Saisashank</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Bandemegala</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>3</v>
+      </c>
+      <c r="F105" t="n">
+        <v>4</v>
+      </c>
+      <c r="G105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>101019954</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Rajat</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Bansal</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>3</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4</v>
+      </c>
+      <c r="G106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>101023655</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Nicholas</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Dipaolo</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>3</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4</v>
+      </c>
+      <c r="G107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>101008373</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Brij</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Patel</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>3</v>
+      </c>
+      <c r="F108" t="n">
+        <v>4</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>100977279</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Obaloluwa</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Alao</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>3</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>101008461</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Efe</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Jarikre</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>3</v>
+      </c>
+      <c r="F110" t="n">
+        <v>4</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>101001717</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Spencer</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Tigere</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4</v>
+      </c>
+      <c r="G111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>101002918</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Baak</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>4</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>101002086</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Maaike</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Gooderham</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>101005281</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Joshua</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Gerwing</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>100998728</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>An</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Huynh</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>4</v>
+      </c>
+      <c r="G115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>101013886</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Justin</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Sigouin</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>101022643</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Sebastien</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Cook</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>3</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4</v>
+      </c>
+      <c r="G117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>101031617</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Maveric</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Garde</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>3</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4</v>
+      </c>
+      <c r="G118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>101041794</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Fatima</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Hashi</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>3</v>
+      </c>
+      <c r="F119" t="n">
+        <v>4</v>
+      </c>
+      <c r="G119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>101035984</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Nour</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Raei</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>3</v>
+      </c>
+      <c r="F120" t="n">
+        <v>4</v>
+      </c>
+      <c r="G120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>101000157</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>3</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4</v>
+      </c>
+      <c r="G121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>101004030</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Abubakar</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Abdulsalam</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>3</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4</v>
+      </c>
+      <c r="G122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>101008516</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Gurveer</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Dhindsa</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>3</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4</v>
+      </c>
+      <c r="G123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>101005880</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Rohan</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Katkar</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>3</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4</v>
+      </c>
+      <c r="G124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>100962843</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Cheung</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>3</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4</v>
+      </c>
+      <c r="G125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>100947181</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Kukai</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Hamada Beaudry</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>3</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>100996474</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Laycano</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4</v>
+      </c>
+      <c r="G127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>101001285</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Xi</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Wang</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4</v>
+      </c>
+      <c r="G128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>101003945</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>George</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Hajjar</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4</v>
+      </c>
+      <c r="G129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>100963239</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Reginald</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Pradel</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>100997499</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Nicholas</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Howes</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4</v>
+      </c>
+      <c r="G131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>101037927</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Samy</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Ibrahim</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>3</v>
+      </c>
+      <c r="F132" t="n">
+        <v>4</v>
+      </c>
+      <c r="G132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>101023872</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Tri</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Nhan</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>3</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4</v>
+      </c>
+      <c r="G133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>101015307</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Delgado Torres</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>3</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4</v>
+      </c>
+      <c r="G134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>101008662</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Politis</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4</v>
+      </c>
+      <c r="G135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>100839804</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Joshua</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Poole</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>3</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4</v>
+      </c>
+      <c r="G136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>101013246</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Mustafa</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Abdulmajeed</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>3</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4</v>
+      </c>
+      <c r="G137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>101008746</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Bryk</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>3</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>100688903</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Dillon</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Claremont</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4</v>
+      </c>
+      <c r="G139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>101000849</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Jacob</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>3</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4</v>
+      </c>
+      <c r="G140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>101022116</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Amr</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Mazen</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>3</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4</v>
+      </c>
+      <c r="G141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>101050142</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Ammar</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Abdelsamie</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>4</v>
+      </c>
+      <c r="G142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>101020551</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Jeffrey</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Bailey</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>3</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4</v>
+      </c>
+      <c r="G143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>101013539</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Shane</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Brockbank</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>3</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4</v>
+      </c>
+      <c r="G144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>101035794</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Hala</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>In'Airat</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4</v>
+      </c>
+      <c r="G145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>100996459</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Youssef</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Saghbini</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4</v>
+      </c>
+      <c r="G146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>100972921</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Mohamed</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Al-Salhi</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4</v>
+      </c>
+      <c r="G147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>101010661</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Samer</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Ammouri</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4</v>
+      </c>
+      <c r="G148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>101005696</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Ibrahim</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Bishtawi</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>3</v>
+      </c>
+      <c r="F149" t="n">
+        <v>4</v>
+      </c>
+      <c r="G149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>101016433</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Jose de Jesus</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Franco Jimenez</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4</v>
+      </c>
+      <c r="G150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>100973826</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Mehar</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Memon</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>3</v>
+      </c>
+      <c r="F151" t="n">
+        <v>4</v>
+      </c>
+      <c r="G151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>100838944</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Aryan</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Rashidi-Tabrizi</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4</v>
+      </c>
+      <c r="G152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>101017367</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Majd </t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Salah Eddin</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4</v>
+      </c>
+      <c r="G153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>100999455</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Steven</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>D'Souza</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>3</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4</v>
+      </c>
+      <c r="G154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>100996828</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Brandon</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Hartford</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4</v>
+      </c>
+      <c r="G155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>101047976</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Musab</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Hassan</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>3</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4</v>
+      </c>
+      <c r="G156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>101050975</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Cedric</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Kamgang Nkenngni</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>3</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4</v>
+      </c>
+      <c r="G157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>101039762</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Lateef</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Lawal</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4</v>
+      </c>
+      <c r="G158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>101036332</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Nzidee</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>3</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4</v>
+      </c>
+      <c r="G159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>101049874</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Abubakar</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Shehu</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>3</v>
+      </c>
+      <c r="F160" t="n">
+        <v>4</v>
+      </c>
+      <c r="G160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>101063364</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Akash</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Noozhumuriyil</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>3</v>
+      </c>
+      <c r="F161" t="n">
+        <v>4</v>
+      </c>
+      <c r="G161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>101024454</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Mathisenan</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Samarasenan</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>3</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4</v>
+      </c>
+      <c r="G162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>101042691</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Udochukwu</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Njoku</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>3</v>
+      </c>
+      <c r="F163" t="n">
+        <v>4</v>
+      </c>
+      <c r="G163" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>100937981</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Eli</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Ocloo</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4</v>
+      </c>
+      <c r="G164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>101020723</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Hanan</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Salamoun</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>3</v>
+      </c>
+      <c r="F165" t="n">
+        <v>4</v>
+      </c>
+      <c r="G165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>100980120</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Van Fraassen</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>3</v>
+      </c>
+      <c r="F166" t="n">
+        <v>4</v>
+      </c>
+      <c r="G166" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>101044984</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Huang</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>3</v>
+      </c>
+      <c r="F167" t="n">
+        <v>4</v>
+      </c>
+      <c r="G167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>100970496</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Sargusingh</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>3</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4</v>
+      </c>
+      <c r="G168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>101036589</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Steven</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Zhou</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>3</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4</v>
+      </c>
+      <c r="G169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>101015132</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Kavichandiran</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Dharmarajan</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>3</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4</v>
+      </c>
+      <c r="G170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>101038960</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Christopher</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Farah</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>3</v>
+      </c>
+      <c r="F171" t="n">
+        <v>4</v>
+      </c>
+      <c r="G171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>101042784</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Omkrishan</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Rajey</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>3</v>
+      </c>
+      <c r="F172" t="n">
+        <v>4</v>
+      </c>
+      <c r="G172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>101025114</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Rocco</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>3</v>
+      </c>
+      <c r="F173" t="n">
+        <v>4</v>
+      </c>
+      <c r="G173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>101007945</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Zhuoshi</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Hou</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>3</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4</v>
+      </c>
+      <c r="G174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>100995128</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Luwan</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Wang</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>3</v>
+      </c>
+      <c r="F175" t="n">
+        <v>4</v>
+      </c>
+      <c r="G175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>101001038</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Kan</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Wang</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>3</v>
+      </c>
+      <c r="F176" t="n">
+        <v>4</v>
+      </c>
+      <c r="G176" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>100987343</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Ziqiang</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Wang</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>3</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4</v>
+      </c>
+      <c r="G177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>101002114</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Samuel</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>3</v>
+      </c>
+      <c r="F178" t="n">
+        <v>4</v>
+      </c>
+      <c r="G178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>101000500</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Nikola</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Erak</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>3</v>
+      </c>
+      <c r="F179" t="n">
+        <v>4</v>
+      </c>
+      <c r="G179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>101002689</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Turner</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>3</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4</v>
+      </c>
+      <c r="G180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>101001925</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Zubaer</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Ahmed</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>3</v>
+      </c>
+      <c r="F181" t="n">
+        <v>4</v>
+      </c>
+      <c r="G181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>101000243</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Muaz</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Almalki</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>3</v>
+      </c>
+      <c r="F182" t="n">
+        <v>4</v>
+      </c>
+      <c r="G182" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>101002629</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Birat</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Dhungana</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>3</v>
+      </c>
+      <c r="F183" t="n">
+        <v>4</v>
+      </c>
+      <c r="G183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>101002933</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Zohaib</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Qureshi</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>3</v>
+      </c>
+      <c r="F184" t="n">
+        <v>4</v>
+      </c>
+      <c r="G184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>100999305</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Ezwad</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Rahman</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>3</v>
+      </c>
+      <c r="F185" t="n">
+        <v>4</v>
+      </c>
+      <c r="G185" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>100997967</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Ho</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>3</v>
+      </c>
+      <c r="F186" t="n">
+        <v>4</v>
+      </c>
+      <c r="G186" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>100998809</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Vivian</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Le</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>3</v>
+      </c>
+      <c r="F187" t="n">
+        <v>4</v>
+      </c>
+      <c r="G187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>101000606</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Dana</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Weaver</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>3</v>
+      </c>
+      <c r="F188" t="n">
+        <v>4</v>
+      </c>
+      <c r="G188" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>100996269</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Hashim</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Hussen</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>3</v>
+      </c>
+      <c r="F189" t="n">
+        <v>4</v>
+      </c>
+      <c r="G189" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>100982801</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Benjamin</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Kukhta</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>3</v>
+      </c>
+      <c r="F190" t="n">
+        <v>4</v>
+      </c>
+      <c r="G190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>101006614</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Mohamed</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Osman</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>3</v>
+      </c>
+      <c r="F191" t="n">
+        <v>4</v>
+      </c>
+      <c r="G191" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>101002418</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Umar</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Sheikh-Omar</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>3</v>
+      </c>
+      <c r="F192" t="n">
+        <v>4</v>
+      </c>
+      <c r="G192" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>100998555</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Wiles</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>4</v>
+      </c>
+      <c r="G193" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>100994082</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Anjolaoluwa</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Lasisi</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>3</v>
+      </c>
+      <c r="F194" t="n">
+        <v>4</v>
+      </c>
+      <c r="G194" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>101020987</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Mohamed</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Elalem</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>3</v>
+      </c>
+      <c r="F195" t="n">
+        <v>4</v>
+      </c>
+      <c r="G195" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>101021710</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Adeek</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Faizal</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>3</v>
+      </c>
+      <c r="F196" t="n">
+        <v>4</v>
+      </c>
+      <c r="G196" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>101013607</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Bodee</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Quansah</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>3</v>
+      </c>
+      <c r="F197" t="n">
+        <v>4</v>
+      </c>
+      <c r="G197" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>101007378</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Manas</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Agarwal</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>3</v>
+      </c>
+      <c r="F198" t="n">
+        <v>4</v>
+      </c>
+      <c r="G198" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>101020390</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Ahmed</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Alsayed</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>3</v>
+      </c>
+      <c r="F199" t="n">
+        <v>4</v>
+      </c>
+      <c r="G199" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>101014387</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Janarth</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Kulenthiran</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>3</v>
+      </c>
+      <c r="F200" t="n">
+        <v>4</v>
+      </c>
+      <c r="G200" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>100962487</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Haoyang</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Guo</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>3</v>
+      </c>
+      <c r="F201" t="n">
+        <v>4</v>
+      </c>
+      <c r="G201" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>100978595</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Harvey</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>3</v>
+      </c>
+      <c r="F202" t="n">
+        <v>4</v>
+      </c>
+      <c r="G202" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>101053479</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Hassan</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Yusuf</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>3</v>
+      </c>
+      <c r="F203" t="n">
+        <v>4</v>
+      </c>
+      <c r="G203" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>101038735</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Labelle</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>3</v>
+      </c>
+      <c r="F204" t="n">
+        <v>4</v>
+      </c>
+      <c r="G204" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>101019133</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Shaviyo</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Marasinghe</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>3</v>
+      </c>
+      <c r="F205" t="n">
+        <v>4</v>
+      </c>
+      <c r="G205" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>101018883</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Ranjan Philip</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>3</v>
+      </c>
+      <c r="F206" t="n">
+        <v>4</v>
+      </c>
+      <c r="G206" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>101037387</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Shivanshi</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Sharma</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>3</v>
+      </c>
+      <c r="F207" t="n">
+        <v>4</v>
+      </c>
+      <c r="G207" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>101050477</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Turner</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>3</v>
+      </c>
+      <c r="F208" t="n">
+        <v>4</v>
+      </c>
+      <c r="G208" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>101023182</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Vuong</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>3</v>
+      </c>
+      <c r="F209" t="n">
+        <v>4</v>
+      </c>
+      <c r="G209" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>101027686</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Alden</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Wang</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>3</v>
+      </c>
+      <c r="F210" t="n">
+        <v>4</v>
+      </c>
+      <c r="G210" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>101054547</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Zoha</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Mehdi</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>3</v>
+      </c>
+      <c r="F211" t="n">
+        <v>4</v>
+      </c>
+      <c r="G211" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>101039656</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Amandeep</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
         <is>
           <t>Singh</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
+      <c r="E212" t="n">
+        <v>3</v>
+      </c>
+      <c r="F212" t="n">
+        <v>4</v>
+      </c>
+      <c r="G212" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/assessmentresult.xlsx
+++ b/assessmentresult.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -400,55 +400,67 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jenna</t>
+          <t>Yvan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>McConnell</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>Labiche</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saundra</t>
+          <t>Jenna</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Warmington</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>McConnell</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -460,68 +472,194 @@
           <t>Poll</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Darlene</t>
+          <t>Saundra</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hebert</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>Warmington</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Erica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jerry </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Buburuz</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daren </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Russ</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kong </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Chiv</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Ishdeep</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Singh</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/assessmentresult.xlsx
+++ b/assessmentresult.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,117 +369,239 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>userId</t>
+          <t>Indicator</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>firstName</t>
+          <t>Level 1: Beginning</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>lastName</t>
+          <t>Level 2: Developing</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>6.1 Personal and group time management</t>
+          <t>Level 3: Accomplished</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>6.2 Group culture, group dynamics</t>
+          <t>Level 4: Exemplary</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>6.3 Leadership: initiative and mentoring, areas of expertise, and interdisciplinary teams</t>
+          <t>Yvan Labiche</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Jenna McConnell</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Jennifer Poll</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Saundra Warmington</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Erica East</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Jerry  Buburuz</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Daren  Russ</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>kong  Chiv</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Ishdeep Singh</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>10</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>6.1 Personal and group time management</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yvan</t>
+          <t>Deadlines often missed. Several projects or assignments appear hurried or inadequately addressed. No evidence of time management planning.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Labiche</t>
+          <t>Some deadlines missed. Some tasks or assignments appear hurried or inadequately addressed. Some evidence of time management planning.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>No important deadlines missed. Few tasks or assignments appear hurried or inadequately addressed. Good time management planning.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>No deadlines missed. Tasks and assignments always excellently prepared and presented. Tasks occasionally completed ahead of schedule. Leadership in time planning.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>11</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>6.2 Group culture, group dynamics</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jenna</t>
+          <t>Not dependable. Little or no trust from teammates. Dishonest or evasive interactions with teammates. Poor conflict resolution.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>McConnell</t>
+          <t>Usually dependable and trusted by teammates. Mostly ethical behavior towards project and teammates. Minor conflicts.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Dependable and trusted by teammates. Ethical open interactions with teammates. Good conflict resolution.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Dependable and trusted by teammates. Ethical and open interactions with teammates. Leads team in ethical and responsive behavior. Leadership in conflict resolution.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>12</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>6.3 Leadership: initiative and mentoring, areas of expertise, and interdisciplinary teams</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>No initiative. No effort to mentor group members or take ownership of an area of expertise.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Poll</t>
+          <t>Some initiative. Some effort to mentor group members and take ownership of an area of expertise.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Good initiative and self-motivation. Regular effort to mentor group members. Clear command of an area of expertise.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Self-motivated, with regular demonstration of initiative. Constructively directs other team members and helps them to improve at their tasks. High degree of knowledge in an area of expertise.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -487,178 +609,42 @@
           <t>NA</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>13</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Saundra</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Warmington</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>14</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Erica</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>15</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jerry </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Buburuz</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>16</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daren </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Russ</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>17</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">kong </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Chiv</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>18</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ishdeep</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Singh</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>4</v>
       </c>
     </row>

--- a/assessmentresult.xlsx
+++ b/assessmentresult.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,169 +369,81 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Indicator</t>
+          <t>StudentId</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Level 1: Beginning</t>
+          <t>LastName</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Level 2: Developing</t>
+          <t>FirstName</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Level 3: Accomplished</t>
+          <t>GA 6.1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Level 4: Exemplary</t>
+          <t>GA 6.2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Yvan Labiche</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Jenna McConnell</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Jennifer Poll</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Saundra Warmington</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Erica East</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Jerry  Buburuz</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Daren  Russ</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>kong  Chiv</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Ishdeep Singh</t>
+          <t>GA 6.3</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>6.1 Personal and group time management</t>
-        </is>
+      <c r="A2" t="n">
+        <v>18</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Deadlines often missed. Several projects or assignments appear hurried or inadequately addressed. No evidence of time management planning.</t>
+          <t>Singh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Some deadlines missed. Some tasks or assignments appear hurried or inadequately addressed. Some evidence of time management planning.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>No important deadlines missed. Few tasks or assignments appear hurried or inadequately addressed. Good time management planning.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>No deadlines missed. Tasks and assignments always excellently prepared and presented. Tasks occasionally completed ahead of schedule. Leadership in time planning.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
+          <t>Ishdeep</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>4</v>
       </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>6.2 Group culture, group dynamics</t>
-        </is>
+      <c r="A3" t="n">
+        <v>10</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Not dependable. Little or no trust from teammates. Dishonest or evasive interactions with teammates. Poor conflict resolution.</t>
+          <t>Labiche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Usually dependable and trusted by teammates. Mostly ethical behavior towards project and teammates. Minor conflicts.</t>
+          <t>Yvan</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dependable and trusted by teammates. Ethical open interactions with teammates. Good conflict resolution.</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dependable and trusted by teammates. Ethical and open interactions with teammates. Leads team in ethical and responsive behavior. Leadership in conflict resolution.</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -539,69 +451,29 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>6.3 Leadership: initiative and mentoring, areas of expertise, and interdisciplinary teams</t>
-        </is>
+      <c r="A4" t="n">
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>No initiative. No effort to mentor group members or take ownership of an area of expertise.</t>
+          <t>McConnell</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Some initiative. Some effort to mentor group members and take ownership of an area of expertise.</t>
+          <t>Jenna</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Good initiative and self-motivation. Regular effort to mentor group members. Clear command of an area of expertise.</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Self-motivated, with regular demonstration of initiative. Constructively directs other team members and helps them to improve at their tasks. High degree of knowledge in an area of expertise.</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -609,43 +481,185 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>4</v>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Poll</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Jennifer</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Warmington</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Saundra</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Erica</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Buburuz</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jerry </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Russ</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daren </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chiv</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kong </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/assessmentresult.xlsx
+++ b/assessmentresult.xlsx
@@ -369,7 +369,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>StudentId</t>
+          <t>StudentId/GA</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -413,13 +413,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">

--- a/assessmentresult.xlsx
+++ b/assessmentresult.xlsx
@@ -400,70 +400,64 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Singh</t>
+          <t>Russ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ishdeep</t>
+          <t xml:space="preserve">Daren </t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Labiche</t>
+          <t>Singh</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yvan</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>Ishdeep</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>McConnell</t>
+          <t>Labiche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jenna</t>
+          <t>Yvan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -484,16 +478,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Poll</t>
+          <t>McConnell</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Jenna</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -514,16 +508,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Warmington</t>
+          <t>Poll</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Saundra</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -544,16 +538,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>Warmington</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Erica</t>
+          <t>Saundra</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -574,16 +568,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Buburuz</t>
+          <t>East</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jerry </t>
+          <t>Erica</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -604,16 +598,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Russ</t>
+          <t>Buburuz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daren </t>
+          <t xml:space="preserve">Jerry </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
